--- a/hardware/cm4_cb_use_v01/smt_files/bom.xlsx
+++ b/hardware/cm4_cb_use_v01/smt_files/bom.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\OneDrive - Universitetet i Agder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\kicad\5.99\projects\cm4_cb_use_v01\hardware\cm4_cb_use_v01\smt_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2606F47-1500-44DB-8C18-D4A712D843EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7B329F-29D2-4E03-BAC2-FD6723C7BD6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A74CD07-A9E2-4AAC-B70F-19A631FCE804}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{1A74CD07-A9E2-4AAC-B70F-19A631FCE804}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="83">
   <si>
     <t>Comment</t>
   </si>
@@ -108,21 +108,9 @@
     <t>C72037</t>
   </si>
   <si>
-    <t>HDMI_A</t>
-  </si>
-  <si>
     <t>J2</t>
   </si>
   <si>
-    <t>SFONG_HDMI:SOFNG_HDMI</t>
-  </si>
-  <si>
-    <t>C111617</t>
-  </si>
-  <si>
-    <t>1054500101</t>
-  </si>
-  <si>
     <t>J3</t>
   </si>
   <si>
@@ -156,15 +144,9 @@
     <t>C479898</t>
   </si>
   <si>
-    <t>ComputeModule4-CM4</t>
-  </si>
-  <si>
     <t>Module1</t>
   </si>
   <si>
-    <t>CM4IO:Raspberry-Pi-4-Compute-Module</t>
-  </si>
-  <si>
     <t>C597931</t>
   </si>
   <si>
@@ -220,15 +202,104 @@
   </si>
   <si>
     <t>C97502</t>
+  </si>
+  <si>
+    <t>Footprint ok?</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>Farnell</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>nei</t>
+  </si>
+  <si>
+    <t>https://no.farnell.com/molex/47151-1061/hdmi-connector-rcpt-r-a-19pos/dp/3103017?st=hdmi</t>
+  </si>
+  <si>
+    <t>MOLEX_HDMI:MOLEX_HDMI</t>
+  </si>
+  <si>
+    <t>https://no.farnell.com/molex/105450-0101/usb-conn-3-1-usb-type-c-rcpt-surface/dp/2524076?st=1054500101</t>
+  </si>
+  <si>
+    <t>https://no.farnell.com/texas-instruments/tps62133rgtr/dc-dc-conv-buck-2-5mhz-vqfn-16/dp/3122975?st=tps62133</t>
+  </si>
+  <si>
+    <t>https://no.farnell.com/murata/lqm21pn2r2mc0d/inductor-2-2uh-20-0-6a-50mhz-0805/dp/2470285?st=2.2uh%200805</t>
+  </si>
+  <si>
+    <t>Hirose_connector</t>
+  </si>
+  <si>
+    <t>HRS:HRS_connector</t>
+  </si>
+  <si>
+    <t>Antall</t>
+  </si>
+  <si>
+    <t>https://no.farnell.com/hirose-hrs/df40c-100ds-0-4v-51/connector-stacking-rcpt-100pos/dp/2427679?st=df40c-100ds-0.4v</t>
+  </si>
+  <si>
+    <t>https://no.farnell.com/vishay/crcw08051k00fkea/res-1k-1-0-125w-0805-thick-film/dp/1469847?st=0805%201k</t>
+  </si>
+  <si>
+    <t>https://no.farnell.com/panasonic/era6aeb222v/res-2k2-0-1-0-125w-0805-metal/dp/1577663?st=2.2kohm%200805</t>
+  </si>
+  <si>
+    <t>https://no.farnell.com/vishay/crcw0805100kfkea/res-100k-1-0-125w-0805-thick-film/dp/1469860RL?st=100kohm%200805</t>
+  </si>
+  <si>
+    <t>https://no.farnell.com/texas-instruments/sn74lvc1g07dckr/buffer-driver-single-smd-sc-70/dp/3119597?st=sn74lvc1g07dckr</t>
+  </si>
+  <si>
+    <t>https://no.farnell.com/search?st=tpd2eusb30</t>
+  </si>
+  <si>
+    <t>https://no.farnell.com/avx/08053d106kat2a/cap-10-f-25v-10-x5r-0805/dp/1867958?ost=1867958</t>
+  </si>
+  <si>
+    <t>https://no.farnell.com/avx/08051c104k4t2a/cap-0-1-f-100v-10-x7r-0805/dp/1833888?ost=1833888</t>
+  </si>
+  <si>
+    <t>https://no.farnell.com/kemet/c0805c332k5ractu/cap-3300pf-50v-10-x7r-0805/dp/1414687?st=0805%203.3nf</t>
+  </si>
+  <si>
+    <t>https://no.farnell.com/avx/08056d226mat2a/cap-22-f-6-3v-20-x5r-0805/dp/1867955?ost=1867955</t>
+  </si>
+  <si>
+    <t>https://no.farnell.com/dialight/5988181107f/led-green-300mcd-523nm-0805/dp/2748715?ost=2748715</t>
+  </si>
+  <si>
+    <t>https://no.farnell.com/kingbright/kp-2012src-j4/led-0805-x-bri-led-200mcd-640nm/dp/2314331?ost=2314331</t>
+  </si>
+  <si>
+    <t>USB_C</t>
+  </si>
+  <si>
+    <t>HDMI_connector</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -249,7 +320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -294,11 +365,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -306,6 +454,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E2F496-2F06-48A1-A040-967BCFD892F7}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,37 +799,63 @@
     <col min="1" max="1" width="23.42578125" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" customWidth="1"/>
     <col min="3" max="3" width="71.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="E1" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="13">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14">
+        <v>1867958</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -674,8 +868,20 @@
       <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1833888</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -688,8 +894,20 @@
       <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1414687</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -702,8 +920,20 @@
       <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1867955</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -716,8 +946,20 @@
       <c r="D6" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2748715</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -730,148 +972,279 @@
       <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>2314331</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <v>3103017</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D9" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
+        <v>2524076</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7">
+        <v>3122975</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D11" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8">
+        <v>2470285</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="E12" s="6">
+        <v>2</v>
+      </c>
+      <c r="F12" s="7">
+        <v>2427679</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1469847</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="C14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="E14" s="6">
+        <v>2</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1577663</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="C15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1469860</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="D16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7">
+        <v>3119597</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>61</v>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8">
+        <v>3116502</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>